--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_13-06.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_13-06.xlsx
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>7789:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
@@ -1146,7 +1152,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1166,13 +1172,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1184,7 +1190,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1192,17 +1198,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>16</v>
+        <v>320</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1210,7 +1216,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1218,51 +1224,77 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="K24" s="10">
-        <v>1538.04</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="11">
         <v>41</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c t="s" r="F25" s="12">
+    </row>
+    <row r="24" ht="24.75" customHeight="1">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c t="s" r="B24" s="7">
         <v>42</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c t="s" r="I25" s="14">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c t="s" r="H24" s="8">
+        <v>14</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9">
+        <v>30</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c t="s" r="N24" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="26.25" customHeight="1">
+      <c r="K25" s="10">
+        <v>1513.04</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="11">
         <v>43</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c t="s" r="F26" s="12">
+        <v>44</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c t="s" r="I26" s="14">
+        <v>45</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="74">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1330,10 +1362,13 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:N26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
